--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES FEBRERO 2022" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="REMISIONES   MARZO   2022  " sheetId="3" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>MARCELO</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE    MARZO        2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -821,6 +824,117 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="8577265"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="8624892"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2130,10 +2244,10 @@
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2335,7 @@
         <v>316</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H58" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H50" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -2256,7 +2370,7 @@
         <v>44597</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B36" si="1">B5+1</f>
+        <f t="shared" ref="B6:B28" si="1">B5+1</f>
         <v>131</v>
       </c>
       <c r="C6" s="16"/>
@@ -2849,11 +2963,971 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43">
+        <v>0</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="49">
+        <f>SUM(E4:E50)</f>
+        <v>69969</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49">
+        <f>SUM(G4:G50)</f>
+        <v>69969</v>
+      </c>
+      <c r="H51" s="50">
+        <f>SUM(H4:H50)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="54"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="70">
+        <f>E51-G51</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="57"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="59"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="I68" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E57:G57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:I76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="18" style="65" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
+        <v>153</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H58" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>154</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B36" si="1">B5+1</f>
+        <v>155</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="29" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="27"/>
@@ -2869,7 +3943,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="27"/>
@@ -2885,7 +3959,7 @@
       <c r="A31" s="31"/>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="27"/>
@@ -2901,7 +3975,7 @@
       <c r="A32" s="31"/>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="27"/>
@@ -2917,7 +3991,7 @@
       <c r="A33" s="31"/>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="27"/>
@@ -2933,7 +4007,7 @@
       <c r="A34" s="31"/>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="27"/>
@@ -2949,7 +4023,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="27"/>
@@ -2965,7 +4039,7 @@
       <c r="A36" s="31"/>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="27"/>
@@ -3272,12 +4346,12 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>69969</v>
+        <v>0</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>69969</v>
+        <v>0</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
@@ -3460,18 +4534,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE    MARZO        2 0 2 2</t>
+  </si>
+  <si>
+    <t>HERRADURA DAVID</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
   </si>
 </sst>
 </file>
@@ -3457,7 +3463,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3525,15 +3531,25 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14">
+        <v>44624</v>
+      </c>
       <c r="B4" s="15">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="18">
+        <v>425</v>
+      </c>
+      <c r="F4" s="19">
+        <v>44625</v>
+      </c>
+      <c r="G4" s="20">
+        <v>425</v>
+      </c>
       <c r="H4" s="21">
         <f t="shared" ref="H4:H58" si="0">E4-G4</f>
         <v>0</v>
@@ -3541,185 +3557,287 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44624</v>
+      </c>
       <c r="B5" s="15">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5356</v>
+      </c>
+      <c r="F5" s="24">
+        <v>44625</v>
+      </c>
+      <c r="G5" s="25">
+        <v>5356</v>
+      </c>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44625</v>
+      </c>
       <c r="B6" s="15">
         <f t="shared" ref="B6:B36" si="1">B5+1</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <v>52</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44625</v>
+      </c>
+      <c r="G6" s="25">
+        <v>52</v>
+      </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="26">
+        <v>44625</v>
+      </c>
       <c r="B7" s="15">
         <f t="shared" si="1"/>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23">
+        <v>184</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44625</v>
+      </c>
+      <c r="G7" s="25">
+        <v>184</v>
+      </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44626</v>
+      </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2959</v>
+      </c>
+      <c r="F8" s="24">
+        <v>44626</v>
+      </c>
+      <c r="G8" s="25">
+        <v>2959</v>
+      </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44628</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="23">
+        <v>6453</v>
+      </c>
+      <c r="F9" s="24">
+        <v>44632</v>
+      </c>
+      <c r="G9" s="25">
+        <v>6453</v>
+      </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44631</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="23">
+        <v>526</v>
+      </c>
+      <c r="F10" s="24">
+        <v>44632</v>
+      </c>
+      <c r="G10" s="25">
+        <v>526</v>
+      </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44632</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="23">
+        <v>11122</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44632</v>
+      </c>
+      <c r="G11" s="25">
+        <v>11122</v>
+      </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>44634</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23">
+        <v>8126</v>
+      </c>
+      <c r="F12" s="24">
+        <v>44635</v>
+      </c>
+      <c r="G12" s="25">
+        <v>8126</v>
+      </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44634</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2097</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44635</v>
+      </c>
+      <c r="G13" s="25">
+        <v>2097</v>
+      </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44635</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3333</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44636</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="23">
+        <v>337</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="27"/>
@@ -3735,7 +3853,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="27"/>
@@ -3751,7 +3869,7 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="27"/>
@@ -3767,7 +3885,7 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="27"/>
@@ -3783,7 +3901,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="27"/>
@@ -3799,7 +3917,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="27"/>
@@ -3815,7 +3933,7 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="27"/>
@@ -3831,7 +3949,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="27"/>
@@ -3847,7 +3965,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="27"/>
@@ -3863,7 +3981,7 @@
       <c r="A25" s="14"/>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="27"/>
@@ -3879,7 +3997,7 @@
       <c r="A26" s="14"/>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="27"/>
@@ -3895,7 +4013,7 @@
       <c r="A27" s="14"/>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="27"/>
@@ -3911,7 +4029,7 @@
       <c r="A28" s="31"/>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="27"/>
@@ -3927,7 +4045,7 @@
       <c r="A29" s="31"/>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="27"/>
@@ -3943,7 +4061,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="27"/>
@@ -3959,7 +4077,7 @@
       <c r="A31" s="31"/>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="27"/>
@@ -3975,7 +4093,7 @@
       <c r="A32" s="31"/>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="27"/>
@@ -3991,7 +4109,7 @@
       <c r="A33" s="31"/>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="27"/>
@@ -4007,7 +4125,7 @@
       <c r="A34" s="31"/>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="27"/>
@@ -4023,7 +4141,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="27"/>
@@ -4039,7 +4157,7 @@
       <c r="A36" s="31"/>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="27"/>
@@ -4346,16 +4464,16 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>0</v>
+        <v>40970</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>0</v>
+        <v>37300</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>0</v>
+        <v>3670</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4399,7 +4517,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="70">
         <f>E59-G59</f>
-        <v>0</v>
+        <v>3670</v>
       </c>
       <c r="F63" s="71"/>
       <c r="G63" s="72"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -3463,7 +3463,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3804,11 +3804,15 @@
       <c r="E14" s="23">
         <v>3333</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="24">
+        <v>44638</v>
+      </c>
+      <c r="G14" s="25">
+        <v>3333</v>
+      </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>3333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3826,88 +3830,142 @@
       <c r="E15" s="23">
         <v>337</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="24">
+        <v>44639</v>
+      </c>
+      <c r="G15" s="25">
+        <v>337</v>
+      </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44637</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2600</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44639</v>
+      </c>
+      <c r="G16" s="25">
+        <v>2600</v>
+      </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44638</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1080</v>
+      </c>
+      <c r="F17" s="24">
+        <v>44640</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1080</v>
+      </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44639</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23">
+        <v>316</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44639</v>
+      </c>
+      <c r="G18" s="25">
+        <v>316</v>
+      </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44640</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="23">
+        <v>7994</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44641</v>
+      </c>
+      <c r="G19" s="25">
+        <v>7994</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44640</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="23">
+        <v>5256</v>
+      </c>
+      <c r="F20" s="24">
+        <v>44641</v>
+      </c>
+      <c r="G20" s="25">
+        <v>5256</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4464,16 +4522,16 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>40970</v>
+        <v>58216</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>37300</v>
+        <v>58216</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>3670</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4517,7 +4575,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="70">
         <f>E59-G59</f>
-        <v>3670</v>
+        <v>0</v>
       </c>
       <c r="F63" s="71"/>
       <c r="G63" s="72"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  ABASTOS  HERRADURA  MARZO  2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
   </si>
 </sst>
 </file>
@@ -946,13 +949,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -999,13 +1002,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3460,10 +3463,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3551,7 +3554,7 @@
         <v>425</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H58" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H47" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -3586,7 +3589,7 @@
         <v>44625</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B36" si="1">B5+1</f>
+        <f t="shared" ref="B6:B25" si="1">B5+1</f>
         <v>156</v>
       </c>
       <c r="C6" s="16"/>
@@ -3972,80 +3975,130 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44644</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="23">
+        <v>4360</v>
+      </c>
+      <c r="F21" s="24">
+        <v>44641</v>
+      </c>
+      <c r="G21" s="25">
+        <v>4360</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44645</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="23">
+        <v>540</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44647</v>
+      </c>
+      <c r="G22" s="25">
+        <v>540</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44645</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="23">
+        <v>192</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44647</v>
+      </c>
+      <c r="G23" s="25">
+        <v>192</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44646</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
+        <v>450</v>
+      </c>
+      <c r="F24" s="24">
+        <v>44647</v>
+      </c>
+      <c r="G24" s="25">
+        <v>450</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44647</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="23">
+        <v>12416</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44647</v>
+      </c>
+      <c r="G25" s="25">
+        <v>12416</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4053,26 +4106,20 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="15">
-        <f t="shared" si="1"/>
-        <v>176</v>
-      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="29"/>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="15">
-        <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="29"/>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
@@ -4083,13 +4130,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="15">
-        <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="C28" s="32"/>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="27"/>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -4099,13 +4143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="15">
-        <f t="shared" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="C29" s="32"/>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="27"/>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -4115,13 +4156,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="15">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="C30" s="32"/>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="27"/>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -4131,13 +4169,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="15">
-        <f t="shared" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="C31" s="32"/>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="27"/>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
@@ -4147,13 +4182,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="15">
-        <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="C32" s="32"/>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="27"/>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -4163,13 +4195,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="15">
-        <f t="shared" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="C33" s="32"/>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="27"/>
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
@@ -4179,68 +4208,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="15">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="C34" s="32"/>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="15">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="C35" s="32"/>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="27"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="15">
-        <f t="shared" si="1"/>
-        <v>186</v>
-      </c>
-      <c r="C36" s="32"/>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="27"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="29"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="27"/>
       <c r="E37" s="23"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="29"/>
@@ -4253,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="29"/>
@@ -4266,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="29"/>
@@ -4279,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="29"/>
@@ -4292,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="29"/>
@@ -4305,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="29"/>
@@ -4318,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="29"/>
@@ -4331,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="29"/>
@@ -4344,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="29"/>
@@ -4357,182 +4377,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="43">
-        <v>0</v>
-      </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="49">
+        <f>SUM(E4:E47)</f>
+        <v>76174</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49">
+        <f>SUM(G4:G47)</f>
+        <v>76174</v>
+      </c>
+      <c r="H48" s="50">
+        <f>SUM(H4:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="70">
+        <f>E48-G48</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="57"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="59"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="49">
-        <f>SUM(E4:E58)</f>
-        <v>58216</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49">
-        <f>SUM(G4:G58)</f>
-        <v>58216</v>
-      </c>
-      <c r="H59" s="50">
-        <f>SUM(H4:H58)</f>
-        <v>0</v>
-      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4542,43 +4531,33 @@
       <c r="E60" s="51"/>
       <c r="F60" s="52"/>
       <c r="G60" s="53"/>
-      <c r="H60" s="54"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="47"/>
       <c r="C61" s="48"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="55" t="s">
-        <v>10</v>
-      </c>
+      <c r="E61" s="51"/>
       <c r="F61" s="52"/>
-      <c r="G61" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="54"/>
+      <c r="G61" s="53"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="47"/>
       <c r="C62" s="48"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="55"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="54"/>
+      <c r="G62" s="53"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="70">
-        <f>E59-G59</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="72"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4590,123 +4569,21 @@
       <c r="G64" s="53"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="59"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="53"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="53"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="I76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
